--- a/biology/Microbiologie/Musicola/Musicola.xlsx
+++ b/biology/Microbiologie/Musicola/Musicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Musicola est un genre de bacilles Gram négatifs de la famille des Pectobacteriaceae. Son nom, formé sur Musa (genre botanique du bananier) et sur le suffixe latin -cola (habitant), peut se traduire par « habitant du bananier ». Il fait référence aux bananiers dans lesquels ce genre bactérien a été isolé pour la première fois[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Musicola est un genre de bacilles Gram négatifs de la famille des Pectobacteriaceae. Son nom, formé sur Musa (genre botanique du bananier) et sur le suffixe latin -cola (habitant), peut se traduire par « habitant du bananier ». Il fait référence aux bananiers dans lesquels ce genre bactérien a été isolé pour la première fois.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est créé en 2021 par reclassement de l'espèce Dickeya paradisiaca déjà comptée dans la famille des Pectobacteriaceae[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est créé en 2021 par reclassement de l'espèce Dickeya paradisiaca déjà comptée dans la famille des Pectobacteriaceae.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (27 octobre 2022)[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (27 octobre 2022):
 Musicola keenii Hugouvieux-Cotte-Pattat et al. 2021
 Musicola paradisiaca (Fernandez-Borrero &amp; Lopez-Duque 1970) Hugouvieux-Cotte-Pattat et al. 2021</t>
         </is>
